--- a/src/test/java/com/pack/testData/AddCertifications.xlsx
+++ b/src/test/java/com/pack/testData/AddCertifications.xlsx
@@ -116,6 +116,63 @@
   </si>
   <si>
     <t>3/19/22 - 4/1/22</t>
+  </si>
+  <si>
+    <t>PartnerSelectorURL</t>
+  </si>
+  <si>
+    <t>PartnerCode</t>
+  </si>
+  <si>
+    <t>UserLoginID</t>
+  </si>
+  <si>
+    <t>UserPassword</t>
+  </si>
+  <si>
+    <t>DataBaseModel</t>
+  </si>
+  <si>
+    <t>DatabaseName</t>
+  </si>
+  <si>
+    <t>PropertyName</t>
+  </si>
+  <si>
+    <t>DataBaseModel1</t>
+  </si>
+  <si>
+    <t>https://qa-partnerselector.unifocus.com/</t>
+  </si>
+  <si>
+    <t>masterqa</t>
+  </si>
+  <si>
+    <t>tmobmas1</t>
+  </si>
+  <si>
+    <t>Q@testing123</t>
+  </si>
+  <si>
+    <t>RMS Modern</t>
+  </si>
+  <si>
+    <t>QA Butterscotch Master</t>
+  </si>
+  <si>
+    <t>Chicago</t>
+  </si>
+  <si>
+    <t>DC</t>
+  </si>
+  <si>
+    <t>qa107</t>
+  </si>
+  <si>
+    <t>QA Butterscotch 107</t>
+  </si>
+  <si>
+    <t>Doral Golf Resort and Spa</t>
   </si>
 </sst>
 </file>
@@ -498,216 +555,350 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7" activeCellId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="H1">
+      <selection activeCell="A4" sqref="A4:H4" activeCellId="0"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.0898" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.6328" customWidth="1" bestFit="1"/>
+    <col min="2" max="2" width="11.1797" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" width="10.8164" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" width="12.7266" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" width="13.9062" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" width="20.6328" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" width="21.8164" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" width="14.9062" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.0898" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s">
+      <c r="A1" s="0" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="0" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="0" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="0" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" s="0" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="0" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="J1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="K1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="L1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="M1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="N1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="O1" t="s">
         <v>17</v>
       </c>
-      <c r="H1" t="s">
+      <c r="P1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="Q1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" t="s">
+      <c r="R1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" t="s">
+      <c r="S1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" t="s">
+      <c r="T1" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2">
+      <c r="A2" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H2" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2">
         <v>2773</v>
       </c>
-      <c r="B2" t="s">
+      <c r="J2" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1">
+      <c r="K2" s="1">
         <v>44612</v>
       </c>
-      <c r="D2" s="1">
+      <c r="L2" s="1">
         <v>44640</v>
       </c>
-      <c r="E2" s="1">
+      <c r="M2" s="1">
         <v>44701</v>
       </c>
-      <c r="F2" t="s">
+      <c r="N2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="O2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="P2" t="s">
         <v>28</v>
       </c>
-      <c r="I2">
+      <c r="Q2">
         <v>1</v>
       </c>
-      <c r="J2" t="s">
+      <c r="R2" t="s">
         <v>13</v>
       </c>
-      <c r="K2" t="s">
+      <c r="S2" t="s">
         <v>14</v>
       </c>
-      <c r="L2" t="s">
+      <c r="T2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3">
+      <c r="A3" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G3" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="H3" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3">
         <v>585213</v>
       </c>
-      <c r="B3" t="s">
+      <c r="J3" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="2">
+      <c r="K3" s="2">
         <v>44612</v>
       </c>
-      <c r="D3" s="3">
+      <c r="L3" s="3">
         <v>44640</v>
       </c>
-      <c r="E3" s="2">
+      <c r="M3" s="2">
         <v>44701</v>
       </c>
-      <c r="F3" t="s">
+      <c r="N3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="O3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" t="s">
+      <c r="P3" t="s">
         <v>28</v>
       </c>
-      <c r="I3">
+      <c r="Q3">
         <v>2</v>
       </c>
-      <c r="J3" t="s">
+      <c r="R3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" t="s">
+      <c r="S3" t="s">
         <v>20</v>
       </c>
-      <c r="L3" t="s">
+      <c r="T3" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4">
+      <c r="A4" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="0" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="0" t="s">
+        <v>46</v>
+      </c>
+      <c r="G4" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I4">
         <v>7748</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="J4" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1">
+      <c r="K4" s="1">
         <v>44612</v>
       </c>
-      <c r="D4" s="1">
+      <c r="L4" s="1">
         <v>44640</v>
       </c>
-      <c r="E4" s="1">
+      <c r="M4" s="1">
         <v>44701</v>
       </c>
-      <c r="F4" s="0" t="s">
+      <c r="N4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="0" t="s">
+      <c r="O4" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="0" t="s">
+      <c r="P4" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I4" s="0">
+      <c r="Q4" s="0">
         <v>3</v>
       </c>
-      <c r="J4" s="0" t="s">
+      <c r="R4" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="0" t="s">
+      <c r="S4" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="0" t="s">
+      <c r="T4" s="0" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5">
+      <c r="A5" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="0" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="0" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="0" t="s">
+        <v>42</v>
+      </c>
+      <c r="G5" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="0" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5">
         <v>654212</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="J5" s="0" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="4">
+      <c r="K5" s="4">
         <v>44612</v>
       </c>
-      <c r="D5" s="3">
+      <c r="L5" s="3">
         <v>44640</v>
       </c>
-      <c r="E5" s="4">
+      <c r="M5" s="4">
         <v>44701</v>
       </c>
-      <c r="F5" s="0" t="s">
+      <c r="N5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="O5" s="0" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="0" t="s">
+      <c r="P5" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="I5" s="0">
+      <c r="Q5" s="0">
         <v>4</v>
       </c>
-      <c r="J5" s="0" t="s">
+      <c r="R5" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="0" t="s">
+      <c r="S5" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="0" t="s">
+      <c r="T5" s="0" t="s">
         <v>21</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F2" display="koshika@gmail.com" r:id="rId1"/>
+    <hyperlink ref="F3" display="narvate@gmail.com" r:id="rId2"/>
+    <hyperlink ref="F4" display="kattera@gmail.com" r:id="rId3"/>
+    <hyperlink ref="F5" display="koshika@gmail.com" r:id="rId4"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>